--- a/AccountTest.xlsx
+++ b/AccountTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA245291-4825-4D17-8F57-CC8AF2CEE8B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A769C01-20A5-4A7E-8642-8563652A5020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Not appropriate</t>
+  </si>
+  <si>
+    <t>Not required</t>
   </si>
 </sst>
 </file>
@@ -576,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +757,10 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">

--- a/AccountTest.xlsx
+++ b/AccountTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A769C01-20A5-4A7E-8642-8563652A5020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D13163D-34D9-4697-9A38-AFF138EEE49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -170,15 +170,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Not appropriate</t>
-  </si>
-  <si>
-    <t>Not required</t>
   </si>
 </sst>
 </file>
@@ -580,7 +571,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,10 +708,7 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -757,10 +745,7 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
